--- a/QDLogistics/FileUploads/export/box/2018/04/26/IDS-20180426-A/CheckList-106004183.xlsx
+++ b/QDLogistics/FileUploads/export/box/2018/04/26/IDS-20180426-A/CheckList-106004183.xlsx
@@ -1054,7 +1054,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">780713517288</t>
+    <t xml:space="preserve">780739968154</t>
   </si>
   <si>
     <t xml:space="preserve">✔</t>
